--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6FEE9A-5C7D-47B8-B4F7-80CD5AE7796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1655A-19CF-4A21-8408-667C7266F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2532" windowWidth="19368" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Context</t>
   </si>
@@ -28,19 +28,88 @@
     <t>Text Response</t>
   </si>
   <si>
-    <t>привет еба</t>
-  </si>
-  <si>
-    <t>здарова</t>
-  </si>
-  <si>
     <t>привет</t>
   </si>
   <si>
     <t>здравствуй</t>
   </si>
   <si>
-    <t>хало</t>
+    <t>добрый день!</t>
+  </si>
+  <si>
+    <t>доброе утро!</t>
+  </si>
+  <si>
+    <t>добрый вечер!</t>
+  </si>
+  <si>
+    <t>доброго времени суток!</t>
+  </si>
+  <si>
+    <t>приветствую</t>
+  </si>
+  <si>
+    <t>здравствуйте</t>
+  </si>
+  <si>
+    <t>как дела?</t>
+  </si>
+  <si>
+    <t>У меня проблема</t>
+  </si>
+  <si>
+    <t>Вознкла проблема</t>
+  </si>
+  <si>
+    <t>Столкнулась с трудностями</t>
+  </si>
+  <si>
+    <t>Это что вообще такое</t>
+  </si>
+  <si>
+    <t>НЕ РАБТАЕТ</t>
+  </si>
+  <si>
+    <t>приносим свои извинения, с вами в ближайшее время свяжется наш оператор</t>
+  </si>
+  <si>
+    <t>Помогите</t>
+  </si>
+  <si>
+    <t>Подскажите, пожалуйста</t>
+  </si>
+  <si>
+    <t>Ожидайте, с вами скоро свяжется администратор</t>
+  </si>
+  <si>
+    <t>Возник вопрос</t>
+  </si>
+  <si>
+    <t>Спасибо</t>
+  </si>
+  <si>
+    <t>Обращайтесь, мы во всем постараемся помочь</t>
+  </si>
+  <si>
+    <t>Благодарю за помощь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не за что, если еще возникнут трудности, мы всегда поможем </t>
+  </si>
+  <si>
+    <t>Пока</t>
+  </si>
+  <si>
+    <t>Досвидания</t>
+  </si>
+  <si>
+    <t>Удачи</t>
+  </si>
+  <si>
+    <t>Услышимся</t>
+  </si>
+  <si>
+    <t>До скорой встречи</t>
   </si>
 </sst>
 </file>
@@ -358,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,23 +449,129 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
